--- a/1.업무/3. 지도/map_data.xlsx
+++ b/1.업무/3. 지도/map_data.xlsx
@@ -642,7 +642,11 @@
       <c r="F7" t="n">
         <v>127.0809505</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -874,7 +878,11 @@
       <c r="F15" t="n">
         <v>127.0780347</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4047,7 +4055,11 @@
       <c r="F124" t="n">
         <v>127.1011306</v>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4221,7 +4233,11 @@
       <c r="F130" t="n">
         <v>127.1910067</v>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4685,7 +4701,11 @@
       <c r="F146" t="n">
         <v>126.8110543</v>
       </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>완료</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
